--- a/biology/Zoologie/Dundocharax_bidentatus/Dundocharax_bidentatus.xlsx
+++ b/biology/Zoologie/Dundocharax_bidentatus/Dundocharax_bidentatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dundocharax bidentatus, unique représentant du genre Dundocharax, est une espèce de poissons d'eau douce de la famille des Distichodontidae (ordre des Characiformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dundocharax bidentatus est endémique de l'Angola où ce poisson ne se rencontre que dans un cours d'eau, affluent de la Tshikapa, nommé Lucoge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dundocharax bidentatus est endémique de l'Angola où ce poisson ne se rencontre que dans un cours d'eau, affluent de la Tshikapa, nommé Lucoge.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dundocharax bidentatus mesure au maximum 19 mm, queue non comprise[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dundocharax bidentatus mesure au maximum 19 mm, queue non comprise.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Dundocharax bidentatus Poll, 1967[2].
-Dundocharax bidentatus a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Dundocharax bidentatus Poll, 1967.
+Dundocharax bidentatus a pour synonyme :
 Neolebias bidentatus (Poll, 1967)</t>
         </is>
       </c>
@@ -605,10 +623,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étymologie du nom générique Dundocharax n'est pas confirmée. Il pourrait s'agir d'une référence au musée de Dundo en Angola où les spécimens types sont archivés [3].
-Son épithète spécifique, du latin bi, « deux », et dentatus, « dent », fait référence aux deux rangées de dents bicuspidées[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom générique Dundocharax n'est pas confirmée. Il pourrait s'agir d'une référence au musée de Dundo en Angola où les spécimens types sont archivés .
+Son épithète spécifique, du latin bi, « deux », et dentatus, « dent », fait référence aux deux rangées de dents bicuspidées.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Max Poll, « Contribution à la faune ichthyologique de l'Angola », Publicações Culturais, Companhia de Diamantes de Angola, Lisbonne, vol. 75,‎ 1967, p. 1-381 (ISSN 0870-614X).</t>
         </is>
